--- a/_debug/samples/sample_sheet_small.xlsx
+++ b/_debug/samples/sample_sheet_small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaisc\Projects\adit\_debug\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DDB2EC-2189-42FA-9557-1B5EAB69473E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9076CD4-03DC-4B6C-A8E6-72EF5CDFAFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="5685" windowWidth="15390" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61380" yWindow="8385" windowWidth="15390" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>10007</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>10002</v>
